--- a/Documents/数据字典.xlsx
+++ b/Documents/数据字典.xlsx
@@ -1,23 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hero" sheetId="1" r:id="rId1"/>
+    <sheet name="HeroLike" sheetId="2" r:id="rId2"/>
+    <sheet name="Monster" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+  <si>
+    <t>rowid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>walk_spd</t>
+  </si>
+  <si>
+    <t>run_spd</t>
+  </si>
+  <si>
+    <t>melee_atk</t>
+  </si>
+  <si>
+    <t>range_atk</t>
+  </si>
+  <si>
+    <t>magic_atk</t>
+  </si>
+  <si>
+    <t>melee_def</t>
+  </si>
+  <si>
+    <t>range_def</t>
+  </si>
+  <si>
+    <t>magic_def</t>
+  </si>
+  <si>
+    <t>atk_type</t>
+  </si>
+  <si>
+    <t>atk_range</t>
+  </si>
+  <si>
+    <t>atk_gap</t>
+  </si>
+  <si>
+    <t>hp_recover_spd</t>
+  </si>
+  <si>
+    <t>mp_recover_spd</t>
+  </si>
+  <si>
+    <t>英雄ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒生命回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glory</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>行id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +188,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +224,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +548,1613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="16" max="17" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>800</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>130</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>900</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>600</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>150</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>110</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>800</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>130</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>900</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>600</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>150</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>110</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/数据字典.xlsx
+++ b/Documents/数据字典.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId1"/>
-    <sheet name="HeroLike" sheetId="2" r:id="rId2"/>
-    <sheet name="Monster" sheetId="3" r:id="rId3"/>
+    <sheet name="HeroBattleProperty" sheetId="1" r:id="rId1"/>
+    <sheet name="HeroLikeProperty" sheetId="2" r:id="rId2"/>
+    <sheet name="MonsterBattleProperty" sheetId="3" r:id="rId3"/>
+    <sheet name="HeroBehaviourProperty" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>rowid</t>
   </si>
@@ -173,13 +174,89 @@
   </si>
   <si>
     <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻最小空闲时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻最大空闲时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻最小空闲时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_min_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻最大空闲时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_max_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻感知半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_perception_radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,15 +316,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -257,6 +349,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -305,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,27 +644,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:Q12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="16" max="17" width="14.25" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="17" max="18" width="14.25" customWidth="1"/>
+    <col min="19" max="19" width="15.125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -577,105 +675,123 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -683,52 +799,55 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>1300</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>10</v>
       </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -736,52 +855,55 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1200</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>180</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="O4" s="3">
-        <v>3</v>
-      </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -789,52 +911,55 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1000</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>80</v>
       </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
       <c r="K5" s="3">
         <v>3</v>
       </c>
       <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
         <v>6</v>
       </c>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
       <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
         <v>8</v>
       </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -842,52 +967,55 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>1100</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
       <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>120</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
         <v>8</v>
       </c>
-      <c r="L6" s="3">
-        <v>3</v>
-      </c>
       <c r="M6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
         <v>13</v>
       </c>
-      <c r="O6" s="3">
-        <v>3</v>
-      </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -895,52 +1023,55 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
         <v>130</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>6</v>
       </c>
-      <c r="K7" s="3">
-        <v>5</v>
-      </c>
       <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
         <v>4</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -948,52 +1079,55 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>900</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>90</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6</v>
       </c>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
       <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1001,28 +1135,28 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>1400</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>80</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>9</v>
@@ -1031,22 +1165,25 @@
         <v>9</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1054,52 +1191,55 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>1000</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>60</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>6</v>
       </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
       <c r="L10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1107,52 +1247,55 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1100</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>600</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>150</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
       </c>
       <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1160,48 +1303,51 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>1200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>110</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8</v>
       </c>
       <c r="K12" s="3">
         <v>8</v>
       </c>
       <c r="L12" s="3">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>10</v>
       </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2157,4 +2303,66 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/数据字典.xlsx
+++ b/Documents/数据字典.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBattleProperty" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
   <si>
     <t>rowid</t>
   </si>
@@ -177,6 +177,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>巡逻半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,11 +205,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>patrol_min_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>巡逻最大空闲时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RowID</t>
+    <t>patrol_max_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻感知半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_perception_radius</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,62 +229,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻半径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patrol_radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻最小空闲时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patrol_min_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻最大空闲时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patrol_max_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻感知半径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patrol_perception_radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -316,30 +312,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +648,7 @@
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -675,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -722,632 +703,676 @@
       <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>1300</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>1200</v>
       </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>180</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>800</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>80</v>
       </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
         <v>6</v>
       </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
         <v>8</v>
       </c>
-      <c r="P5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>1100</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>120</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="M6" s="3">
-        <v>3</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
         <v>13</v>
       </c>
-      <c r="P6" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
         <v>130</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-      <c r="L7" s="3">
-        <v>5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>6</v>
       </c>
       <c r="L8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" s="3">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="N8" s="3">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>80</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>9</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>9</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>9</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
         <v>60</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>6</v>
       </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="P11" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>1100</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>150</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3">
-        <v>10</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>110</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="3">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="M13" s="3">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1360,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1392,92 +1417,78 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="3">
         <v>0.2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1485,68 +1496,68 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.8</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
       <c r="F6" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0.5</v>
@@ -1554,42 +1565,42 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1600,47 +1611,70 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0.5</v>
       </c>
       <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.2</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1652,15 +1686,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -1717,159 +1752,159 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -1877,16 +1912,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D5" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -1901,22 +1936,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3">
         <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
@@ -1930,46 +1965,46 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>80</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
         <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>13</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -1983,13 +2018,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1998,31 +2033,31 @@
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O7" s="3">
         <v>3</v>
@@ -2036,16 +2071,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -2054,25 +2089,25 @@
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>6</v>
       </c>
       <c r="K8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2089,16 +2124,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -2107,25 +2142,25 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J9" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2142,16 +2177,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -2160,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -2169,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M10" s="3">
         <v>1</v>
       </c>
       <c r="N10" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>3</v>
@@ -2195,16 +2230,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -2213,28 +2248,28 @@
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="3">
         <v>3</v>
@@ -2248,54 +2283,107 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>150</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
         <v>1200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>110</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
-        <v>10</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2307,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2322,43 +2410,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>60</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/数据字典.xlsx
+++ b/Documents/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBattleProperty" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
-  <si>
-    <t>rowid</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>hp</t>
   </si>
@@ -70,10 +64,6 @@
     <t>mp_recover_spd</t>
   </si>
   <si>
-    <t>英雄ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +139,6 @@
     <t>power</t>
   </si>
   <si>
-    <t>行id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荣耀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,22 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RowID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巡逻半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +212,50 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄id(主键)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID（联合主键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级（联合主键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID（主键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID（主键）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,198 +635,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:S8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="17" max="18" width="14.25" customWidth="1"/>
-    <col min="19" max="19" width="15.125" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="16" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -824,364 +825,346 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>600</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>180</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>600</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>180</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
       <c r="O5" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D6" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J6" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <v>3</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O6" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>13</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>130</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>120</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5</v>
-      </c>
-      <c r="L7" s="3">
-        <v>8</v>
-      </c>
-      <c r="M7" s="3">
-        <v>3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>13</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>130</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5</v>
-      </c>
       <c r="M8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>900</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>90</v>
+      </c>
+      <c r="J9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>90</v>
-      </c>
       <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="L9" s="3">
-        <v>3</v>
-      </c>
       <c r="M9" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>1400</v>
       </c>
       <c r="D10" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>800</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="3">
         <v>9</v>
@@ -1190,189 +1173,177 @@
         <v>9</v>
       </c>
       <c r="M10" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="3">
         <v>1000</v>
       </c>
       <c r="E11" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O11" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J12" s="3">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="3">
         <v>3</v>
       </c>
       <c r="N12" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O12" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E13" s="3">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J13" s="3">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="K13" s="3">
         <v>8</v>
       </c>
       <c r="L13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M13" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1385,70 +1356,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1456,225 +1435,195 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="3">
         <v>0.2</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
       <c r="F7" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
       <c r="C8" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="3">
         <v>0.5</v>
       </c>
       <c r="D13" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1686,522 +1635,496 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>180</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>600</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>180</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
       <c r="N5" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>800</v>
       </c>
       <c r="C6" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
       <c r="K6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N6" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>120</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>13</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>130</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>13</v>
-      </c>
-      <c r="O7" s="3">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>130</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5</v>
-      </c>
       <c r="L8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
+        <v>900</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>90</v>
+      </c>
+      <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
-        <v>900</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>90</v>
-      </c>
       <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
       <c r="L9" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3">
         <v>9</v>
@@ -2210,180 +2133,168 @@
         <v>9</v>
       </c>
       <c r="L10" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="3">
         <v>1000</v>
       </c>
       <c r="D11" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N11" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>9</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I12" s="3">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="3">
         <v>3</v>
       </c>
       <c r="M12" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I13" s="3">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="J13" s="3">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L13" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2395,101 +2306,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2497,155 +2397,131 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
         <v>10</v>
       </c>
     </row>
